--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A3CACB-EDA7-40DD-B936-C4C2BDEAE33C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71E0B9-625C-4315-933C-C0C29022D46C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="-12" yWindow="0" windowWidth="21756" windowHeight="8412" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,39 @@
 userEmail : String
     password : String
 userName : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 유저 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +565,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -600,9 +633,11 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -622,16 +657,28 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF71E0B9-625C-4315-933C-C0C29022D46C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48AEA9-5FDC-4A5D-BCEF-D541CCF195D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="0" windowWidth="21756" windowHeight="8412" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="36" yWindow="1956" windowWidth="22932" windowHeight="7752" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전체 유저 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,30 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userInfo/userProfile/:userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allUserInfo : {JSON arr}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 프로필 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -573,7 +593,7 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" customWidth="1"/>
     <col min="7" max="7" width="19.59765625" customWidth="1"/>
     <col min="8" max="8" width="13.3984375" customWidth="1"/>
@@ -626,15 +646,21 @@
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
@@ -650,50 +676,82 @@
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48AEA9-5FDC-4A5D-BCEF-D541CCF195D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F9CB1-860A-4334-92B3-39F7E6E868D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="1956" windowWidth="22932" windowHeight="7752" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="7752" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,13 +159,47 @@
   <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 찜한 콘텐츠 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentsInfo : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서
+내가 찜한 콘텐츠 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/favoriteContent/:userId</t>
+  </si>
+  <si>
+    <t>/content/mainFavoriteContent/:userIndex'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +254,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +307,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +629,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -593,7 +637,7 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" customWidth="1"/>
     <col min="7" max="7" width="19.59765625" customWidth="1"/>
     <col min="8" max="8" width="13.3984375" customWidth="1"/>
@@ -753,29 +797,65 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+    <row r="6" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F9CB1-860A-4334-92B3-39F7E6E868D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ADEB5E-73B4-4025-8F48-5B40AE53697F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="7752" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,13 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userInfo : {JSON arr}
-isSuccess : Boolean
-code : Integer
-message : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +186,40 @@
   </si>
   <si>
     <t>/content/mainFavoriteContent/:userIndex'</t>
+  </si>
+  <si>
+    <t>userInfo : {JSON}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 뜨는 콘텐츠
+검색수 TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/popularContent</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popularContentRows : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -628,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -691,17 +718,17 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>20</v>
@@ -721,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -751,123 +778,141 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="66" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ADEB5E-73B4-4025-8F48-5B40AE53697F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D1DC4-481B-4E12-B671-A04CCA01A781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="7752" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,33 @@
 isSuccess : Boolean
 code : Integer
 message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todayTop5ContentRows : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 한국 TOP5 콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/todayTop5Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -669,7 +696,7 @@
     <col min="7" max="7" width="19.59765625" customWidth="1"/>
     <col min="8" max="8" width="13.3984375" customWidth="1"/>
     <col min="9" max="9" width="17.19921875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -914,17 +941,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D1DC4-481B-4E12-B671-A04CCA01A781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B8F03-58E6-46B9-931A-639B6D395D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="7752" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,34 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netflixOriginalLatestContentRows : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스 오리지널 시리즈 중
+최신 콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/netflixOriginalLatestContent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,21 +710,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
     <col min="3" max="3" width="11.09765625" customWidth="1"/>
     <col min="4" max="4" width="32.59765625" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" customWidth="1"/>
     <col min="7" max="7" width="19.59765625" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
     <col min="9" max="9" width="17.19921875" customWidth="1"/>
-    <col min="10" max="10" width="30.796875" customWidth="1"/>
+    <col min="10" max="10" width="36.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -911,7 +939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="66" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -941,7 +969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -971,17 +999,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+    <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B8F03-58E6-46B9-931A-639B6D395D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2684D8DA-5726-41B8-80FA-E3DE22AE7A23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="7776" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,34 @@
   </si>
   <si>
     <t>/content/netflixOriginalLatestContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/recommendedContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청 완료한 콘텐츠와
+비슷한 콘텐츠 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendedContents : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1029,17 +1057,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2684D8DA-5726-41B8-80FA-E3DE22AE7A23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1DD2B-47DC-4A7D-9FA9-34DD44E4FFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="7776" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="11076" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,34 @@
   </si>
   <si>
     <t>recommendedContents : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 예정 &amp;
+알람 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/toBeReleasedContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toBeReleasedContents : {JSON arr}
 isSuccess : Boolean
 code : Integer
 message : String</t>
@@ -738,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1087,17 +1115,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1DD2B-47DC-4A7D-9FA9-34DD44E4FFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C7BFA-4733-492B-B77C-AEA069F5284A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="22932" windowHeight="11076" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="-36" yWindow="156" windowWidth="22932" windowHeight="11376" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,30 @@
   </si>
   <si>
     <t>toBeReleasedContents : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/maxSearchContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색화면
+최다 검색 콘텐츠 TOP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxSearchContents : {JSON arr}
 isSuccess : Boolean
 code : Integer
 message : String</t>
@@ -766,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1145,17 +1169,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C7BFA-4733-492B-B77C-AEA069F5284A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0303A5E-8408-4435-8C8F-457C50384C5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36" yWindow="156" windowWidth="22932" windowHeight="11376" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7644" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,33 @@
   </si>
   <si>
     <t>maxSearchContents : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장한 콘텐츠 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/savedContent/:userIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savedContents : {JSON arr}
 isSuccess : Boolean
 code : Integer
 message : String</t>
@@ -790,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1170,7 +1197,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
@@ -1197,17 +1226,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+    <row r="14" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0303A5E-8408-4435-8C8F-457C50384C5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4F87E-05D8-4772-8290-A707ED420552}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7644" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,64 @@
   </si>
   <si>
     <t>savedContents : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장한 콘텐츠 중 하나 자세히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 상세 화면 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 상세 화면 비디오
+&amp; 나의 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/savedContent/Detail/:userIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savedContents : {JSON}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/contentDetail/:contentsIndex/:userIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/contentDetailVideo/:contentsIndex/:userIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentDetail : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentDetailVideo : {JSON arr}
 isSuccess : Boolean
 code : Integer
 message : String</t>
@@ -817,16 +875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" customWidth="1"/>
     <col min="5" max="5" width="15.19921875" customWidth="1"/>
     <col min="7" max="7" width="19.59765625" customWidth="1"/>
     <col min="8" max="8" width="11.3984375" customWidth="1"/>
@@ -1256,44 +1314,96 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+    <row r="15" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4F87E-05D8-4772-8290-A707ED420552}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEA36D7-565A-4AE5-8F13-CEB1C97DAF4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7644" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +436,29 @@
   </si>
   <si>
     <t>contentDetailVideo : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 더보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/contentMore/:contentsIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentMoreRows : {JSON arr}
 isSuccess : Boolean
 code : Integer
 message : String</t>
@@ -875,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1363,7 +1386,9 @@
       <c r="F16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
         <v>84</v>
@@ -1391,7 +1416,9 @@
       <c r="F17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
         <v>84</v>
@@ -1400,19 +1427,35 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEA36D7-565A-4AE5-8F13-CEB1C97DAF4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736057A7-780F-472E-BBAD-B3486C2ED501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7644" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,33 @@
 isSuccess : Boolean
 code : Integer
 message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출연자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출연자 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performerInfoRows : {JSON arr}
+isSuccess : Boolean
+code : Integer
+message : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/performer/performerInfo/:performerID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1457,17 +1484,35 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+    <row r="19" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736057A7-780F-472E-BBAD-B3486C2ED501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F3ACF-5730-453E-82AD-51FD0C86854E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7404" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,26 @@
   </si>
   <si>
     <t>/performer/performerInfo/:performerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 유저 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/userInfo/:userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1514,17 +1534,35 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+    <row r="20" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83F3ACF-5730-453E-82AD-51FD0C86854E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1B148-C774-4A89-A66F-565C41A8A0B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7404" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7836" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,49 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/myInfo/:userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-access-token : token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info : {JSON}
+isSuccess : Boolean
+code : Integer
+message : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -955,7 +998,7 @@
     <col min="2" max="2" width="20.69921875" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="38.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
     <col min="7" max="7" width="19.59765625" customWidth="1"/>
     <col min="8" max="8" width="11.3984375" customWidth="1"/>
     <col min="9" max="9" width="17.19921875" customWidth="1"/>
@@ -1564,29 +1607,65 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+    <row r="21" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>

--- a/netflixAPI명세서.xlsx
+++ b/netflixAPI명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunyoung\Documents\GitHub\Netflix_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1B148-C774-4A89-A66F-565C41A8A0B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F63FB1-76A8-45D6-BE6B-815A867F11CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="22932" windowHeight="7836" xr2:uid="{4E78023A-5B93-4442-AFD9-34AD06969DF7}"/>
   </bookViews>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659207DB-4A49-448E-A9F6-A4BF3D958067}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1059,7 +1059,9 @@
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>201</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1091,9 @@
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>201</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1123,9 @@
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1155,9 @@
       <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>200</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1179,7 +1187,9 @@
       <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>200</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1209,7 +1219,9 @@
       <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1239,7 +1251,9 @@
       <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1283,9 @@
       <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1299,7 +1315,9 @@
       <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1329,7 +1347,9 @@
       <c r="G11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>200</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>56</v>
       </c>
@@ -1359,7 +1379,9 @@
       <c r="G12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
       <c r="I12" s="3" t="s">
         <v>65</v>
       </c>
@@ -1389,7 +1411,9 @@
       <c r="G13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>200</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>68</v>
       </c>
@@ -1419,7 +1443,9 @@
       <c r="G14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>200</v>
+      </c>
       <c r="I14" s="3" t="s">
         <v>76</v>
       </c>
@@ -1449,7 +1475,9 @@
       <c r="G15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
       <c r="I15" s="3" t="s">
         <v>84</v>
       </c>
@@ -1479,7 +1507,9 @@
       <c r="G16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>200</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>84</v>
       </c>
@@ -1509,7 +1539,9 @@
       <c r="G17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>84</v>
       </c>
@@ -1539,7 +1571,9 @@
       <c r="G18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
       <c r="I18" s="3" t="s">
         <v>93</v>
       </c>
@@ -1569,7 +1603,9 @@
       <c r="G19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>200</v>
+      </c>
       <c r="I19" s="3" t="s">
         <v>98</v>
       </c>
@@ -1599,7 +1635,9 @@
       <c r="G20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
       <c r="I20" s="3" t="s">
         <v>105</v>
       </c>
@@ -1629,7 +1667,9 @@
       <c r="G21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>200</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>111</v>
       </c>
@@ -1659,7 +1699,9 @@
       <c r="G22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>111</v>
       </c>
